--- a/实验-10.xlsx
+++ b/实验-10.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F728D4B8-02F4-4ABA-B984-10BACE57BD53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -432,6 +433,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -713,29 +717,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -782,7 +786,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -829,7 +833,7 @@
         <v>27.325500000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
@@ -890,7 +894,7 @@
         <v>2.7325500000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -937,7 +941,7 @@
         <v>-0.122</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -998,7 +1002,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>-0.24399999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
@@ -1087,7 +1091,7 @@
         <f t="shared" si="4"/>
         <v>5.1840000000000002</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="21">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>-87.84</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>5</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>1.4142135623730951</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <f>1/(2*PI()*SQRT(5)*10^(-4))</f>
         <v>711.76254341717708</v>
@@ -1139,12 +1143,12 @@
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H12" s="20" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>1</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>2</v>
       </c>
@@ -1238,7 +1242,7 @@
         <v>268.41000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>3</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>26.841000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1350,7 @@
         <v>-0.114</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>9</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>6</v>
       </c>
@@ -1468,7 +1472,7 @@
         <v>-0.22800000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>8</v>
       </c>
@@ -1532,6 +1536,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/实验-10.xlsx
+++ b/实验-10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F728D4B8-02F4-4ABA-B984-10BACE57BD53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC6CF4-EA9E-4187-8B9D-1058C4E5D144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Δt（ms）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,32 +74,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">f </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>0</t>
-    </r>
-  </si>
-  <si>
-    <t>理论计算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Δφ(比值)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Δφ(比值)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Δφ(°)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -107,12 +81,32 @@
     <t>T(ms)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Δt/T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论计算(f0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质因数(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质因数(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Δφ(rad)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,19 +151,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="8"/>
@@ -179,27 +160,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,8 +180,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -356,24 +330,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -384,12 +345,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -417,25 +372,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -718,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -734,803 +689,1050 @@
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="20" t="s">
-        <v>4</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8">
+        <v>100</v>
+      </c>
+      <c r="C1" s="8">
+        <v>300</v>
+      </c>
+      <c r="D1" s="8">
+        <v>500</v>
+      </c>
+      <c r="E1" s="8">
+        <v>700</v>
+      </c>
+      <c r="F1" s="8">
+        <v>710</v>
+      </c>
+      <c r="G1" s="8">
+        <v>720</v>
+      </c>
+      <c r="H1" s="13">
+        <v>724</v>
+      </c>
+      <c r="I1" s="8">
+        <v>730</v>
+      </c>
+      <c r="J1" s="8">
+        <v>750</v>
+      </c>
+      <c r="K1" s="8">
+        <v>800</v>
+      </c>
+      <c r="L1" s="8">
+        <v>1000</v>
+      </c>
+      <c r="M1" s="8">
+        <v>1300</v>
+      </c>
+      <c r="N1" s="8">
+        <v>1600</v>
+      </c>
+      <c r="O1" s="9">
+        <v>2000</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10">
-        <v>100</v>
-      </c>
-      <c r="C2" s="10">
-        <v>300</v>
-      </c>
-      <c r="D2" s="10">
-        <v>500</v>
-      </c>
-      <c r="E2" s="10">
-        <v>700</v>
-      </c>
-      <c r="F2" s="10">
-        <v>710</v>
-      </c>
-      <c r="G2" s="10">
-        <v>720</v>
-      </c>
-      <c r="H2" s="15">
-        <v>724</v>
-      </c>
-      <c r="I2" s="10">
-        <v>730</v>
-      </c>
-      <c r="J2" s="10">
-        <v>750</v>
-      </c>
-      <c r="K2" s="10">
-        <v>800</v>
-      </c>
-      <c r="L2" s="10">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="10">
-        <v>1300</v>
-      </c>
-      <c r="N2" s="10">
-        <v>1600</v>
-      </c>
-      <c r="O2" s="11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B2" s="2">
         <v>9.2926000000000002</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C2" s="2">
         <v>32.787100000000002</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D2" s="2">
         <v>83.667000000000002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E2" s="2">
         <v>283.916</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F2" s="2">
         <v>292.01900000000001</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G2" s="2">
         <v>295.82</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H2" s="6">
         <v>297.471</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I2" s="2">
         <v>295.13</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J2" s="2">
         <v>282.22800000000001</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K2" s="2">
         <v>219.96</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L2" s="2">
         <v>94.967100000000002</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M2" s="2">
         <v>52.380699999999997</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N2" s="2">
         <v>37.213799999999999</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O2" s="3">
         <v>27.325500000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="3" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:G4" si="0">B3/10</f>
+      <c r="B3" s="4">
+        <f t="shared" ref="B3:G3" si="0">B2/10</f>
         <v>0.92925999999999997</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C3" s="4">
         <f t="shared" si="0"/>
         <v>3.2787100000000002</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>8.3666999999999998</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E3" s="4">
         <f t="shared" si="0"/>
         <v>28.3916</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>29.201900000000002</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G3" s="4">
         <f t="shared" si="0"/>
         <v>29.582000000000001</v>
       </c>
-      <c r="H4" s="8">
-        <f>H3/10</f>
+      <c r="H3" s="14">
+        <f>H2/10</f>
         <v>29.7471</v>
       </c>
-      <c r="I4" s="2">
-        <f t="shared" ref="I4:O4" si="1">I3/10</f>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:O3" si="1">I2/10</f>
         <v>29.512999999999998</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J3" s="4">
         <f t="shared" si="1"/>
         <v>28.222799999999999</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K3" s="4">
         <f t="shared" si="1"/>
         <v>21.996000000000002</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L3" s="4">
         <f t="shared" si="1"/>
         <v>9.4967100000000002</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M3" s="4">
         <f t="shared" si="1"/>
         <v>5.2380699999999996</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N3" s="4">
         <f t="shared" si="1"/>
         <v>3.7213799999999999</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O3" s="5">
         <f t="shared" si="1"/>
         <v>2.7325500000000003</v>
       </c>
     </row>
+    <row r="4" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8">
+        <v>100</v>
+      </c>
+      <c r="C5" s="8">
+        <v>300</v>
+      </c>
+      <c r="D5" s="8">
+        <v>500</v>
+      </c>
+      <c r="E5" s="8">
+        <v>700</v>
+      </c>
+      <c r="F5" s="8">
+        <v>710</v>
+      </c>
+      <c r="G5" s="8">
+        <v>720</v>
+      </c>
+      <c r="H5" s="13">
+        <v>724</v>
+      </c>
+      <c r="I5" s="8">
+        <v>730</v>
+      </c>
+      <c r="J5" s="8">
+        <v>750</v>
+      </c>
+      <c r="K5" s="8">
+        <v>800</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="8">
+        <v>1300</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1600</v>
+      </c>
+      <c r="O5" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2">
-        <v>2.46</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="B6" s="2">
+        <v>-2.46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>-0.8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>-0.46</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.12</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J6" s="2">
         <v>0.12</v>
       </c>
-      <c r="F5" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>-2.5000000000000001E-2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>-0.12</v>
-      </c>
-      <c r="K5" s="2">
-        <v>-0.20499999999999999</v>
-      </c>
-      <c r="L5" s="2">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M5" s="18">
-        <v>-0.18</v>
-      </c>
-      <c r="N5" s="18">
-        <v>-0.15</v>
-      </c>
-      <c r="O5" s="19">
-        <v>-0.122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <f>1/B2*1000</f>
+      <c r="K6" s="2">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <f>1/B1*1000</f>
         <v>10</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:O6" si="2">1/C2*1000</f>
+      <c r="C7" s="2">
+        <f t="shared" ref="C7:O7" si="2">1/C1*1000</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <f t="shared" si="2"/>
         <v>1.4084507042253522</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <f t="shared" si="2"/>
         <v>1.3888888888888888</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>1.3812154696132597</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I7" s="2">
         <f t="shared" si="2"/>
         <v>1.3698630136986301</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J7" s="2">
         <f t="shared" si="2"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K7" s="2">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L7" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M7" s="2">
         <f t="shared" si="2"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N7" s="2">
         <f t="shared" si="2"/>
         <v>0.625</v>
       </c>
-      <c r="O6" s="19">
+      <c r="O7" s="3">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <f>B5/B6</f>
-        <v>0.246</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" ref="C7:O7" si="3">C5/C6</f>
-        <v>0.24</v>
-      </c>
-      <c r="D7" s="2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <f>B6/B7</f>
+        <v>-0.246</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:O8" si="3">C6/C7</f>
+        <v>-0.24</v>
+      </c>
+      <c r="D8" s="2">
         <f t="shared" si="3"/>
-        <v>0.23</v>
-      </c>
-      <c r="E7" s="2">
+        <v>-0.23</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="3"/>
-        <v>8.3999999999999991E-2</v>
-      </c>
-      <c r="F7" s="2">
+        <v>-8.3999999999999991E-2</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="3"/>
-        <v>4.9700000000000001E-2</v>
-      </c>
-      <c r="G7" s="2">
+        <v>-4.9700000000000001E-2</v>
+      </c>
+      <c r="G8" s="2">
         <f t="shared" si="3"/>
-        <v>1.4400000000000001E-2</v>
-      </c>
-      <c r="H7" s="8">
+        <v>-1.4400000000000001E-2</v>
+      </c>
+      <c r="H8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I8" s="2">
         <f t="shared" si="3"/>
-        <v>-1.8250000000000002E-2</v>
-      </c>
-      <c r="J7" s="2">
+        <v>1.8250000000000002E-2</v>
+      </c>
+      <c r="J8" s="2">
         <f t="shared" si="3"/>
-        <v>-0.09</v>
-      </c>
-      <c r="K7" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" si="3"/>
-        <v>-0.16399999999999998</v>
-      </c>
-      <c r="L7" s="2">
+        <v>0.16399999999999998</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="3"/>
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="M7" s="18">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="3"/>
-        <v>-0.23399999999999999</v>
-      </c>
-      <c r="N7" s="18">
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="3"/>
-        <v>-0.24</v>
-      </c>
-      <c r="O7" s="19">
+        <v>0.24</v>
+      </c>
+      <c r="O8" s="3">
         <f t="shared" si="3"/>
-        <v>-0.24399999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6">
-        <f>B7*360</f>
-        <v>88.56</v>
-      </c>
-      <c r="C8" s="6">
-        <f t="shared" ref="C8:O8" si="4">C7*360</f>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="D8" s="6">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2">
+        <f>B8*360</f>
+        <v>-88.56</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:O9" si="4">C8*360</f>
+        <v>-86.399999999999991</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="4"/>
-        <v>82.8</v>
-      </c>
-      <c r="E8" s="6">
+        <v>-82.8</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="4"/>
-        <v>30.24</v>
-      </c>
-      <c r="F8" s="6">
+        <v>-30.24</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="4"/>
-        <v>17.891999999999999</v>
-      </c>
-      <c r="G8" s="6">
+        <v>-17.891999999999999</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="4"/>
-        <v>5.1840000000000002</v>
-      </c>
-      <c r="H8" s="21">
+        <v>-5.1840000000000002</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I9" s="2">
         <f t="shared" si="4"/>
-        <v>-6.5700000000000012</v>
-      </c>
-      <c r="J8" s="6">
+        <v>6.5700000000000012</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="4"/>
-        <v>-32.4</v>
-      </c>
-      <c r="K8" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="K9" s="2">
         <f t="shared" si="4"/>
-        <v>-59.039999999999992</v>
-      </c>
-      <c r="L8" s="6">
+        <v>59.039999999999992</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="4"/>
-        <v>-81</v>
-      </c>
-      <c r="M8" s="6">
+        <v>81</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="4"/>
-        <v>-84.24</v>
-      </c>
-      <c r="N8" s="6">
+        <v>84.24</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="4"/>
-        <v>-86.399999999999991</v>
-      </c>
-      <c r="O8" s="7">
+        <v>86.399999999999991</v>
+      </c>
+      <c r="O9" s="3">
         <f t="shared" si="4"/>
-        <v>-87.84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1">
+        <v>87.84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <f>B9/180*PI()</f>
+        <v>-1.5456635855661782</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:O10" si="5">C9/180*PI()</f>
+        <v>-1.5079644737231004</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="5"/>
+        <v>-1.4451326206513047</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.52778756580308517</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="5"/>
+        <v>-0.31227430976682546</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="5"/>
+        <v>-9.0477868423386038E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="5"/>
+        <v>0.11466813185602746</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="5"/>
+        <v>0.56548667764616278</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.030442390377452</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.4137166941154069</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.470265361880023</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="5"/>
+        <v>1.5079644737231004</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="5"/>
+        <v>1.5330972149518192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f>1/(2*PI()*SQRT(5)*10^(-4))</f>
+        <v>711.76254341717708</v>
+      </c>
+      <c r="B15" s="1">
         <f>0.1*SQRT(200)</f>
         <v>1.4142135623730951</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
-        <f>1/(2*PI()*SQRT(5)*10^(-4))</f>
-        <v>711.76254341717708</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="C15" s="1">
         <f>0.01*SQRT(200)</f>
         <v>0.1414213562373095</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="20" t="s">
+    <row r="16" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="8">
+        <v>100</v>
+      </c>
+      <c r="C17" s="8">
+        <v>300</v>
+      </c>
+      <c r="D17" s="8">
+        <v>500</v>
+      </c>
+      <c r="E17" s="8">
+        <v>700</v>
+      </c>
+      <c r="F17" s="8">
+        <v>710</v>
+      </c>
+      <c r="G17" s="8">
+        <v>720</v>
+      </c>
+      <c r="H17" s="13">
+        <v>724</v>
+      </c>
+      <c r="I17" s="8">
+        <v>730</v>
+      </c>
+      <c r="J17" s="8">
+        <v>750</v>
+      </c>
+      <c r="K17" s="8">
+        <v>800</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1300</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1600</v>
+      </c>
+      <c r="O17" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>91.998099999999994</v>
+      </c>
+      <c r="C18" s="2">
+        <v>320.78899999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>758.24400000000003</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1547.0519999999999</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1559.7929999999999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1565.4190000000001</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1565.741</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1564.2539999999999</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1542.4459999999999</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1409.502</v>
+      </c>
+      <c r="L18" s="2">
+        <v>838.68100000000004</v>
+      </c>
+      <c r="M18" s="2">
+        <v>500.20699999999999</v>
+      </c>
+      <c r="N18" s="2">
+        <v>362.13799999999998</v>
+      </c>
+      <c r="O18" s="3">
+        <v>268.41000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="4">
+        <f t="shared" ref="B19" si="6">B18/10</f>
+        <v>9.1998099999999994</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19" si="7">C18/10</f>
+        <v>32.078899999999997</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" ref="D19" si="8">D18/10</f>
+        <v>75.824399999999997</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ref="E19" si="9">E18/10</f>
+        <v>154.70519999999999</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" ref="F19" si="10">F18/10</f>
+        <v>155.97929999999999</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" ref="G19" si="11">G18/10</f>
+        <v>156.5419</v>
+      </c>
+      <c r="H19" s="14">
+        <f>H18/10</f>
+        <v>156.57409999999999</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" ref="I19" si="12">I18/10</f>
+        <v>156.4254</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" ref="J19" si="13">J18/10</f>
+        <v>154.24459999999999</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" ref="K19" si="14">K18/10</f>
+        <v>140.9502</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" ref="L19" si="15">L18/10</f>
+        <v>83.868099999999998</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" ref="M19" si="16">M18/10</f>
+        <v>50.020699999999998</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" ref="N19" si="17">N18/10</f>
+        <v>36.213799999999999</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" ref="O19" si="18">O18/10</f>
+        <v>26.841000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8">
+        <v>100</v>
+      </c>
+      <c r="C21" s="8">
+        <v>300</v>
+      </c>
+      <c r="D21" s="8">
+        <v>500</v>
+      </c>
+      <c r="E21" s="8">
+        <v>700</v>
+      </c>
+      <c r="F21" s="8">
+        <v>710</v>
+      </c>
+      <c r="G21" s="8">
+        <v>720</v>
+      </c>
+      <c r="H21" s="13">
+        <v>724</v>
+      </c>
+      <c r="I21" s="8">
+        <v>730</v>
+      </c>
+      <c r="J21" s="8">
+        <v>750</v>
+      </c>
+      <c r="K21" s="8">
+        <v>800</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1300</v>
+      </c>
+      <c r="N21" s="8">
+        <v>1600</v>
+      </c>
+      <c r="O21" s="9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-2.5</v>
+      </c>
+      <c r="C22" s="2">
+        <v>-0.78</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-0.05</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="G22" s="2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0.185</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <f>1/B17*1000</f>
+        <v>10</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:O23" si="19">1/C17*1000</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="19"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="19"/>
+        <v>1.4084507042253522</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="19"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="19"/>
+        <v>1.3812154696132597</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="19"/>
+        <v>1.3698630136986301</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="19"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="19"/>
+        <v>1.25</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="M23" s="2">
+        <f t="shared" si="19"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="N23" s="2">
+        <f t="shared" si="19"/>
+        <v>0.625</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="19"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2">
+        <f>B22/B23</f>
+        <v>-0.25</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24" si="20">C22/C23</f>
+        <v>-0.23399999999999999</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" ref="D24" si="21">D22/D23</f>
+        <v>-0.2</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" ref="E24" si="22">E22/E23</f>
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" ref="F24" si="23">F22/F23</f>
+        <v>-1.4199999999999999E-2</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" ref="G24" si="24">G22/G23</f>
+        <v>-3.6000000000000003E-3</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" ref="H24" si="25">H22/H23</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" ref="I24" si="26">I22/I23</f>
+        <v>-3.6500000000000005E-3</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" ref="J24" si="27">J22/J23</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" ref="K24" si="28">K22/K23</f>
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" ref="L24" si="29">L22/L23</f>
+        <v>0.185</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" ref="M24" si="30">M22/M23</f>
+        <v>0.221</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" ref="N24" si="31">N22/N23</f>
+        <v>0.22400000000000003</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" ref="O24" si="32">O22/O23</f>
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="10">
-        <v>100</v>
-      </c>
-      <c r="C13" s="10">
-        <v>300</v>
-      </c>
-      <c r="D13" s="10">
-        <v>500</v>
-      </c>
-      <c r="E13" s="10">
-        <v>700</v>
-      </c>
-      <c r="F13" s="10">
-        <v>710</v>
-      </c>
-      <c r="G13" s="10">
-        <v>720</v>
-      </c>
-      <c r="H13" s="15">
-        <v>724</v>
-      </c>
-      <c r="I13" s="10">
-        <v>730</v>
-      </c>
-      <c r="J13" s="10">
-        <v>750</v>
-      </c>
-      <c r="K13" s="10">
-        <v>800</v>
-      </c>
-      <c r="L13" s="10">
-        <v>1000</v>
-      </c>
-      <c r="M13" s="10">
-        <v>1300</v>
-      </c>
-      <c r="N13" s="10">
-        <v>1600</v>
-      </c>
-      <c r="O13" s="11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2">
-        <v>91.998099999999994</v>
-      </c>
-      <c r="C14" s="2">
-        <v>320.78899999999999</v>
-      </c>
-      <c r="D14" s="2">
-        <v>758.24400000000003</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1547.0519999999999</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1559.7929999999999</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1565.4190000000001</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1565.741</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1564.2539999999999</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1542.4459999999999</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1409.502</v>
-      </c>
-      <c r="L14" s="2">
-        <v>838.68100000000004</v>
-      </c>
-      <c r="M14" s="2">
-        <v>500.20699999999999</v>
-      </c>
-      <c r="N14" s="2">
-        <v>362.13799999999998</v>
-      </c>
-      <c r="O14" s="3">
-        <v>268.41000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="2">
-        <f t="shared" ref="B15" si="5">B14/10</f>
-        <v>9.1998099999999994</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" ref="C15" si="6">C14/10</f>
-        <v>32.078899999999997</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" ref="D15" si="7">D14/10</f>
-        <v>75.824399999999997</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" ref="E15" si="8">E14/10</f>
-        <v>154.70519999999999</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" ref="F15" si="9">F14/10</f>
-        <v>155.97929999999999</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" ref="G15" si="10">G14/10</f>
-        <v>156.5419</v>
-      </c>
-      <c r="H15" s="8">
-        <f>H14/10</f>
-        <v>156.57409999999999</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" ref="I15" si="11">I14/10</f>
-        <v>156.4254</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" ref="J15" si="12">J14/10</f>
-        <v>154.24459999999999</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" ref="K15" si="13">K14/10</f>
-        <v>140.9502</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" ref="L15" si="14">L14/10</f>
-        <v>83.868099999999998</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" ref="M15" si="15">M14/10</f>
-        <v>50.020699999999998</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" ref="N15" si="16">N14/10</f>
-        <v>36.213799999999999</v>
-      </c>
-      <c r="O15" s="3">
-        <f t="shared" ref="O15" si="17">O14/10</f>
-        <v>26.841000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="B25" s="2">
+        <f>B24*360</f>
+        <v>-90</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" ref="C25:O25" si="33">C24*360</f>
+        <v>-84.24</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="33"/>
+        <v>-72</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="33"/>
+        <v>-12.600000000000001</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="33"/>
+        <v>-5.1120000000000001</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="33"/>
+        <v>-1.296</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="B16" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F16" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="G16" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H16" s="8">
+      <c r="I25" s="2">
+        <f t="shared" si="33"/>
+        <v>-1.3140000000000001</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="33"/>
+        <v>16.2</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="33"/>
+        <v>31.68</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="33"/>
+        <v>66.599999999999994</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" si="33"/>
+        <v>79.56</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="33"/>
+        <v>80.640000000000015</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="33"/>
+        <v>82.08</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B25/180*PI()</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" ref="C26:O26" si="34">C25/180*PI()</f>
+        <v>-1.470265361880023</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="34"/>
+        <v>-1.2566370614359172</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="34"/>
+        <v>-0.21991148575128555</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="34"/>
+        <v>-8.9221231361950135E-2</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="34"/>
+        <v>-2.2619467105846509E-2</v>
+      </c>
+      <c r="H26" s="4">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="I16" s="2">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="J16" s="2">
-        <v>-0.06</v>
-      </c>
-      <c r="K16" s="2">
-        <v>-0.11</v>
-      </c>
-      <c r="L16" s="2">
-        <v>-0.185</v>
-      </c>
-      <c r="M16" s="18">
-        <v>-0.17</v>
-      </c>
-      <c r="N16" s="18">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="O16" s="19">
-        <v>-0.114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2">
-        <f>1/B13*1000</f>
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:O17" si="18">1/C13*1000</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="18"/>
-        <v>2</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="18"/>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="18"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="18"/>
-        <v>1.3888888888888888</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="18"/>
-        <v>1.3812154696132597</v>
-      </c>
-      <c r="I17" s="2">
-        <f t="shared" si="18"/>
-        <v>1.3698630136986301</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="18"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="18"/>
-        <v>1.25</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="M17" s="18">
-        <f t="shared" si="18"/>
-        <v>0.76923076923076927</v>
-      </c>
-      <c r="N17" s="18">
-        <f t="shared" si="18"/>
-        <v>0.625</v>
-      </c>
-      <c r="O17" s="19">
-        <f t="shared" si="18"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="2">
-        <f>B16/B17</f>
-        <v>0.25</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" ref="C18" si="19">C16/C17</f>
-        <v>0.23399999999999999</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18" si="20">D16/D17</f>
-        <v>0.2</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" ref="E18" si="21">E16/E17</f>
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" ref="F18" si="22">F16/F17</f>
-        <v>1.4199999999999999E-2</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" ref="G18" si="23">G16/G17</f>
-        <v>3.6000000000000003E-3</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" ref="H18" si="24">H16/H17</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <f t="shared" ref="I18" si="25">I16/I17</f>
-        <v>3.6500000000000005E-3</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" ref="J18" si="26">J16/J17</f>
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" ref="K18" si="27">K16/K17</f>
-        <v>-8.7999999999999995E-2</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" ref="L18" si="28">L16/L17</f>
-        <v>-0.185</v>
-      </c>
-      <c r="M18" s="18">
-        <f t="shared" ref="M18" si="29">M16/M17</f>
-        <v>-0.221</v>
-      </c>
-      <c r="N18" s="18">
-        <f t="shared" ref="N18" si="30">N16/N17</f>
-        <v>-0.22400000000000003</v>
-      </c>
-      <c r="O18" s="19">
-        <f t="shared" ref="O18" si="31">O16/O17</f>
-        <v>-0.22800000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4">
-        <f>B18*360</f>
-        <v>90</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" ref="C19:O19" si="32">C18*360</f>
-        <v>84.24</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" si="32"/>
-        <v>72</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" si="32"/>
-        <v>12.600000000000001</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" si="32"/>
-        <v>5.1120000000000001</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" si="32"/>
-        <v>1.296</v>
-      </c>
-      <c r="H19" s="4">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="32"/>
-        <v>1.3140000000000001</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="32"/>
-        <v>-16.2</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" si="32"/>
-        <v>-31.68</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" si="32"/>
-        <v>-66.599999999999994</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="32"/>
-        <v>-79.56</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" si="32"/>
-        <v>-80.640000000000015</v>
-      </c>
-      <c r="O19" s="5">
-        <f t="shared" si="32"/>
-        <v>-82.08</v>
+      <c r="I26" s="4">
+        <f t="shared" si="34"/>
+        <v>-2.2933626371205489E-2</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="34"/>
+        <v>0.28274333882308139</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="34"/>
+        <v>0.5529203070318035</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="34"/>
+        <v>1.1623892818282235</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="34"/>
+        <v>1.3885839528866886</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="34"/>
+        <v>1.4074335088082275</v>
+      </c>
+      <c r="O26" s="5">
+        <f t="shared" si="34"/>
+        <v>1.4325662500369458</v>
       </c>
     </row>
   </sheetData>

--- a/实验-10.xlsx
+++ b/实验-10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEC6CF4-EA9E-4187-8B9D-1058C4E5D144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4E038F-A3CB-4368-9DB2-AA6C333C387F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,7 +676,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1212,8 +1212,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <f>1/(2*PI()*SQRT(5)*10^(-4))</f>
-        <v>711.76254341717708</v>
+        <v>711.76199999999994</v>
       </c>
       <c r="B15" s="1">
         <f>0.1*SQRT(200)</f>

--- a/实验-10.xlsx
+++ b/实验-10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4E038F-A3CB-4368-9DB2-AA6C333C387F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE70196B-B410-4C3C-9E51-BB4E5B63D72F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>Δt（ms）</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -101,12 +101,40 @@
     <t>Δφ(rad)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>ω</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ω0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ω/ω0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I/I0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R=100Ω</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +194,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -334,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,9 +429,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -392,6 +440,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -673,19 +757,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -784,7 +872,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
@@ -844,894 +932,1322 @@
         <v>2.7325500000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="17"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="18">
+        <f>B3/29.7471</f>
+        <v>3.12386753666744E-2</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" ref="C4:O4" si="2">C3/29.7471</f>
+        <v>0.110219483579912</v>
+      </c>
+      <c r="D4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.28126103048700546</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.95443253291917529</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.98167216300076321</v>
+      </c>
+      <c r="G4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.99444987914788341</v>
+      </c>
+      <c r="H4" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.99213032530902168</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.94875803019453997</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.73943342376231636</v>
+      </c>
+      <c r="L4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.31924826285587504</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.17608674459022894</v>
+      </c>
+      <c r="N4" s="18">
+        <f t="shared" si="2"/>
+        <v>0.12510059804148976</v>
+      </c>
+      <c r="O4" s="18">
+        <f t="shared" si="2"/>
+        <v>9.185937452726485E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B7" s="8">
         <v>100</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C7" s="8">
         <v>300</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D7" s="8">
         <v>500</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E7" s="8">
         <v>700</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F7" s="8">
         <v>710</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G7" s="8">
         <v>720</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H7" s="13">
         <v>724</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I7" s="8">
         <v>730</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J7" s="8">
         <v>750</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K7" s="8">
         <v>800</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L7" s="8">
         <v>1000</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M7" s="8">
         <v>1300</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N7" s="8">
         <v>1600</v>
       </c>
-      <c r="O5" s="9">
+      <c r="O7" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>-2.46</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="2">
         <v>-0.8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2">
         <v>-0.46</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="2">
         <v>-0.12</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="2">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G8" s="2">
         <v>-0.02</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I8" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J8" s="2">
         <v>0.12</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K8" s="2">
         <v>0.20499999999999999</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L8" s="2">
         <v>0.22500000000000001</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M8" s="2">
         <v>0.18</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N8" s="2">
         <v>0.15</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O8" s="3">
         <v>0.122</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="2">
         <f>1/B1*1000</f>
         <v>10</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" ref="C7:O7" si="2">1/C1*1000</f>
+      <c r="C9" s="2">
+        <f t="shared" ref="C9:O9" si="3">1/C1*1000</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" si="2"/>
+      <c r="D9" s="2">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="2"/>
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="2"/>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
         <v>1.4084507042253522</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="2"/>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
         <v>1.3888888888888888</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
         <v>1.3812154696132597</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="2"/>
+      <c r="I9" s="2">
+        <f t="shared" si="3"/>
         <v>1.3698630136986301</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="2"/>
+      <c r="J9" s="2">
+        <f t="shared" si="3"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K7" s="2">
-        <f t="shared" si="2"/>
+      <c r="K9" s="2">
+        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" si="2"/>
+      <c r="L9" s="2">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M7" s="2">
-        <f t="shared" si="2"/>
+      <c r="M9" s="2">
+        <f t="shared" si="3"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="N7" s="2">
-        <f t="shared" si="2"/>
+      <c r="N9" s="2">
+        <f t="shared" si="3"/>
         <v>0.625</v>
       </c>
-      <c r="O7" s="3">
-        <f t="shared" si="2"/>
+      <c r="O9" s="3">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <f>B6/B7</f>
+      <c r="B10" s="2">
+        <f>B8/B9</f>
         <v>-0.246</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:O8" si="3">C6/C7</f>
+      <c r="C10" s="2">
+        <f t="shared" ref="C10:O10" si="4">C8/C9</f>
         <v>-0.24</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="3"/>
+      <c r="D10" s="2">
+        <f t="shared" si="4"/>
         <v>-0.23</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="3"/>
+      <c r="E10" s="2">
+        <f t="shared" si="4"/>
         <v>-8.3999999999999991E-2</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="3"/>
+      <c r="F10" s="2">
+        <f t="shared" si="4"/>
         <v>-4.9700000000000001E-2</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="3"/>
+      <c r="G10" s="2">
+        <f t="shared" si="4"/>
         <v>-1.4400000000000001E-2</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="3"/>
-        <v>1.8250000000000002E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.09</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.16399999999999998</v>
-      </c>
-      <c r="L8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.23399999999999999</v>
-      </c>
-      <c r="N8" s="2">
-        <f t="shared" si="3"/>
-        <v>0.24</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" si="3"/>
-        <v>0.24399999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <f>B8*360</f>
-        <v>-88.56</v>
-      </c>
-      <c r="C9" s="2">
-        <f t="shared" ref="C9:O9" si="4">C8*360</f>
-        <v>-86.399999999999991</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="4"/>
-        <v>-82.8</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="4"/>
-        <v>-30.24</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="4"/>
-        <v>-17.891999999999999</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="4"/>
-        <v>-5.1840000000000002</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="H10" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I10" s="2">
         <f t="shared" si="4"/>
-        <v>6.5700000000000012</v>
-      </c>
-      <c r="J9" s="2">
+        <v>1.8250000000000002E-2</v>
+      </c>
+      <c r="J10" s="2">
         <f t="shared" si="4"/>
-        <v>32.4</v>
-      </c>
-      <c r="K9" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="K10" s="2">
         <f t="shared" si="4"/>
-        <v>59.039999999999992</v>
-      </c>
-      <c r="L9" s="2">
+        <v>0.16399999999999998</v>
+      </c>
+      <c r="L10" s="2">
         <f t="shared" si="4"/>
-        <v>81</v>
-      </c>
-      <c r="M9" s="2">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="M10" s="2">
         <f t="shared" si="4"/>
-        <v>84.24</v>
-      </c>
-      <c r="N9" s="2">
+        <v>0.23399999999999999</v>
+      </c>
+      <c r="N10" s="2">
         <f t="shared" si="4"/>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="O9" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="O10" s="3">
         <f t="shared" si="4"/>
-        <v>87.84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
-        <f>B9/180*PI()</f>
-        <v>-1.5456635855661782</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" ref="C10:O10" si="5">C9/180*PI()</f>
-        <v>-1.5079644737231004</v>
-      </c>
-      <c r="D10" s="4">
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <f>B10*360</f>
+        <v>-88.56</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" ref="C11:O11" si="5">C10*360</f>
+        <v>-86.399999999999991</v>
+      </c>
+      <c r="D11" s="2">
         <f t="shared" si="5"/>
-        <v>-1.4451326206513047</v>
-      </c>
-      <c r="E10" s="4">
+        <v>-82.8</v>
+      </c>
+      <c r="E11" s="2">
         <f t="shared" si="5"/>
-        <v>-0.52778756580308517</v>
-      </c>
-      <c r="F10" s="4">
+        <v>-30.24</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="5"/>
-        <v>-0.31227430976682546</v>
-      </c>
-      <c r="G10" s="4">
+        <v>-17.891999999999999</v>
+      </c>
+      <c r="G11" s="2">
         <f t="shared" si="5"/>
-        <v>-9.0477868423386038E-2</v>
-      </c>
-      <c r="H10" s="4">
+        <v>-5.1840000000000002</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I11" s="2">
         <f t="shared" si="5"/>
+        <v>6.5700000000000012</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="5"/>
+        <v>32.4</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="5"/>
+        <v>59.039999999999992</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="5"/>
+        <v>84.24</v>
+      </c>
+      <c r="N11" s="2">
+        <f t="shared" si="5"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="5"/>
+        <v>87.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B11/180*PI()</f>
+        <v>-1.5456635855661782</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:O12" si="6">C11/180*PI()</f>
+        <v>-1.5079644737231004</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="6"/>
+        <v>-1.4451326206513047</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.52778756580308517</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="6"/>
+        <v>-0.31227430976682546</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="6"/>
+        <v>-9.0477868423386038E-2</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="6"/>
         <v>0.11466813185602746</v>
       </c>
-      <c r="J10" s="4">
-        <f t="shared" si="5"/>
+      <c r="J12" s="4">
+        <f t="shared" si="6"/>
         <v>0.56548667764616278</v>
       </c>
-      <c r="K10" s="4">
-        <f t="shared" si="5"/>
+      <c r="K12" s="4">
+        <f t="shared" si="6"/>
         <v>1.030442390377452</v>
       </c>
-      <c r="L10" s="4">
-        <f t="shared" si="5"/>
+      <c r="L12" s="4">
+        <f t="shared" si="6"/>
         <v>1.4137166941154069</v>
       </c>
-      <c r="M10" s="4">
-        <f t="shared" si="5"/>
+      <c r="M12" s="4">
+        <f t="shared" si="6"/>
         <v>1.470265361880023</v>
       </c>
-      <c r="N10" s="4">
-        <f t="shared" si="5"/>
+      <c r="N12" s="4">
+        <f t="shared" si="6"/>
         <v>1.5079644737231004</v>
       </c>
-      <c r="O10" s="5">
-        <f t="shared" si="5"/>
+      <c r="O12" s="5">
+        <f t="shared" si="6"/>
         <v>1.5330972149518192</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+    <row r="13" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <f>2*PI()*B7</f>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:O13" si="7">2*PI()*C7</f>
+        <v>1884.9555921538758</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="7"/>
+        <v>3141.5926535897929</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="7"/>
+        <v>4398.22971502571</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="7"/>
+        <v>4461.0615680975061</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="7"/>
+        <v>4523.8934211693022</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4549.0261623980205</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="7"/>
+        <v>4586.7252742410983</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="7"/>
+        <v>4712.3889803846896</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="7"/>
+        <v>5026.5482457436692</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="7"/>
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="7"/>
+        <v>8168.1408993334617</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="7"/>
+        <v>10053.096491487338</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="7"/>
+        <v>12566.370614359172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <f>B13/4549.02616239802</f>
+        <v>0.138121546961326</v>
+      </c>
+      <c r="C14" s="19">
+        <f t="shared" ref="C14:O14" si="8">C13/4549.02616239802</f>
+        <v>0.41436464088397795</v>
+      </c>
+      <c r="D14" s="19">
+        <f t="shared" si="8"/>
+        <v>0.69060773480662996</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="8"/>
+        <v>0.96685082872928185</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="8"/>
+        <v>0.98066298342541458</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="8"/>
+        <v>0.9944751381215472</v>
+      </c>
+      <c r="H14" s="19">
+        <f t="shared" si="8"/>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" si="8"/>
+        <v>1.0082872928176798</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" si="8"/>
+        <v>1.0359116022099448</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="8"/>
+        <v>1.104972375690608</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="8"/>
+        <v>1.3812154696132599</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" si="8"/>
+        <v>1.7955801104972378</v>
+      </c>
+      <c r="N14" s="19">
+        <f t="shared" si="8"/>
+        <v>2.209944751381216</v>
+      </c>
+      <c r="O14" s="19">
+        <f t="shared" si="8"/>
+        <v>2.7624309392265198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B17" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C17" s="24" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="D17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27">
         <v>711.76199999999994</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B18" s="28">
         <f>0.1*SQRT(200)</f>
         <v>1.4142135623730951</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C18" s="28">
         <f>0.01*SQRT(200)</f>
         <v>0.1414213562373095</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="D18" s="29">
+        <v>4549.0261623980196</v>
+      </c>
+      <c r="E18" s="28">
+        <v>29.7471</v>
+      </c>
+      <c r="F18" s="30">
+        <v>15.65741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B22" s="8">
         <v>100</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C22" s="8">
         <v>300</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D22" s="8">
         <v>500</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E22" s="8">
         <v>700</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F22" s="8">
         <v>710</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G22" s="8">
         <v>720</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H22" s="13">
         <v>724</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I22" s="8">
         <v>730</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J22" s="8">
         <v>750</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K22" s="8">
         <v>800</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L22" s="8">
         <v>1000</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M22" s="8">
         <v>1300</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N22" s="8">
         <v>1600</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O22" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B23" s="2">
         <v>91.998099999999994</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C23" s="2">
         <v>320.78899999999999</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D23" s="2">
         <v>758.24400000000003</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E23" s="2">
         <v>1547.0519999999999</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F23" s="2">
         <v>1559.7929999999999</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G23" s="2">
         <v>1565.4190000000001</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H23" s="6">
         <v>1565.741</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I23" s="2">
         <v>1564.2539999999999</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J23" s="2">
         <v>1542.4459999999999</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K23" s="2">
         <v>1409.502</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L23" s="2">
         <v>838.68100000000004</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M23" s="2">
         <v>500.20699999999999</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N23" s="2">
         <v>362.13799999999998</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O23" s="3">
         <v>268.41000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
+    <row r="24" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="4">
-        <f t="shared" ref="B19" si="6">B18/10</f>
-        <v>9.1998099999999994</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" ref="C19" si="7">C18/10</f>
-        <v>32.078899999999997</v>
-      </c>
-      <c r="D19" s="4">
-        <f t="shared" ref="D19" si="8">D18/10</f>
-        <v>75.824399999999997</v>
-      </c>
-      <c r="E19" s="4">
-        <f t="shared" ref="E19" si="9">E18/10</f>
-        <v>154.70519999999999</v>
-      </c>
-      <c r="F19" s="4">
-        <f t="shared" ref="F19" si="10">F18/10</f>
-        <v>155.97929999999999</v>
-      </c>
-      <c r="G19" s="4">
-        <f t="shared" ref="G19" si="11">G18/10</f>
-        <v>156.5419</v>
-      </c>
-      <c r="H19" s="14">
-        <f>H18/10</f>
-        <v>156.57409999999999</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" ref="I19" si="12">I18/10</f>
-        <v>156.4254</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" ref="J19" si="13">J18/10</f>
-        <v>154.24459999999999</v>
-      </c>
-      <c r="K19" s="4">
-        <f t="shared" ref="K19" si="14">K18/10</f>
-        <v>140.9502</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" ref="L19" si="15">L18/10</f>
-        <v>83.868099999999998</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" ref="M19" si="16">M18/10</f>
-        <v>50.020699999999998</v>
-      </c>
-      <c r="N19" s="4">
-        <f t="shared" ref="N19" si="17">N18/10</f>
-        <v>36.213799999999999</v>
-      </c>
-      <c r="O19" s="5">
-        <f t="shared" ref="O19" si="18">O18/10</f>
-        <v>26.841000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="B24" s="4">
+        <f>B23/100</f>
+        <v>0.91998099999999994</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" ref="C24:O24" si="9">C23/100</f>
+        <v>3.2078899999999999</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="9"/>
+        <v>7.5824400000000001</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="9"/>
+        <v>15.470519999999999</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="9"/>
+        <v>15.597929999999998</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="9"/>
+        <v>15.654190000000002</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="9"/>
+        <v>15.65741</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="9"/>
+        <v>15.642539999999999</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="9"/>
+        <v>15.42446</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="9"/>
+        <v>14.09502</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="9"/>
+        <v>8.3868100000000005</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="9"/>
+        <v>5.0020699999999998</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" si="9"/>
+        <v>3.6213799999999998</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="9"/>
+        <v>2.6841000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="17">
+        <f>B24/15.65741</f>
+        <v>5.8756908071002797E-2</v>
+      </c>
+      <c r="C25" s="17">
+        <f t="shared" ref="C25:O25" si="10">C24/15.65741</f>
+        <v>0.20487998973010221</v>
+      </c>
+      <c r="D25" s="17">
+        <f t="shared" si="10"/>
+        <v>0.48427166434295327</v>
+      </c>
+      <c r="E25" s="17">
+        <f t="shared" si="10"/>
+        <v>0.98806379854650284</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="10"/>
+        <v>0.99620115970649026</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="10"/>
+        <v>0.99979434657456123</v>
+      </c>
+      <c r="H25" s="17">
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="B21" s="8">
+      <c r="I25" s="17">
+        <f t="shared" si="10"/>
+        <v>0.99905028992662248</v>
+      </c>
+      <c r="J25" s="17">
+        <f t="shared" si="10"/>
+        <v>0.9851220604173998</v>
+      </c>
+      <c r="K25" s="17">
+        <f t="shared" si="10"/>
+        <v>0.90021402007100793</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="10"/>
+        <v>0.53564478416289796</v>
+      </c>
+      <c r="M25" s="17">
+        <f t="shared" si="10"/>
+        <v>0.31946982291451775</v>
+      </c>
+      <c r="N25" s="17">
+        <f t="shared" si="10"/>
+        <v>0.23128857199243041</v>
+      </c>
+      <c r="O25" s="17">
+        <f t="shared" si="10"/>
+        <v>0.17142681963364312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8">
         <v>100</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C28" s="8">
         <v>300</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D28" s="8">
         <v>500</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E28" s="8">
         <v>700</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F28" s="8">
         <v>710</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G28" s="8">
         <v>720</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H28" s="13">
         <v>724</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I28" s="8">
         <v>730</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J28" s="8">
         <v>750</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K28" s="8">
         <v>800</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L28" s="8">
         <v>1000</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M28" s="8">
         <v>1300</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N28" s="8">
         <v>1600</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O28" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B29" s="2">
         <v>-2.5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C29" s="2">
         <v>-0.78</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D29" s="2">
         <v>-0.4</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E29" s="2">
         <v>-0.05</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F29" s="2">
         <v>-0.02</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G29" s="2">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H29" s="2">
         <v>0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I29" s="2">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J29" s="2">
         <v>0.06</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K29" s="2">
         <v>0.11</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L29" s="2">
         <v>0.185</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M29" s="2">
         <v>0.17</v>
       </c>
-      <c r="N22" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0.114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="N29" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="2">
-        <f>1/B17*1000</f>
+      <c r="B30" s="2">
+        <f>1/B22*1000</f>
         <v>10</v>
       </c>
-      <c r="C23" s="2">
-        <f t="shared" ref="C23:O23" si="19">1/C17*1000</f>
+      <c r="C30" s="2">
+        <f t="shared" ref="C30:O30" si="11">1/C22*1000</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" si="19"/>
+      <c r="D30" s="2">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="E23" s="2">
-        <f t="shared" si="19"/>
+      <c r="E30" s="2">
+        <f t="shared" si="11"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="F23" s="2">
-        <f t="shared" si="19"/>
+      <c r="F30" s="2">
+        <f t="shared" si="11"/>
         <v>1.4084507042253522</v>
       </c>
-      <c r="G23" s="2">
-        <f t="shared" si="19"/>
+      <c r="G30" s="2">
+        <f t="shared" si="11"/>
         <v>1.3888888888888888</v>
       </c>
-      <c r="H23" s="2">
-        <f t="shared" si="19"/>
+      <c r="H30" s="2">
+        <f t="shared" si="11"/>
         <v>1.3812154696132597</v>
       </c>
-      <c r="I23" s="2">
-        <f t="shared" si="19"/>
+      <c r="I30" s="2">
+        <f t="shared" si="11"/>
         <v>1.3698630136986301</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" si="19"/>
+      <c r="J30" s="2">
+        <f t="shared" si="11"/>
         <v>1.3333333333333333</v>
       </c>
-      <c r="K23" s="2">
-        <f t="shared" si="19"/>
+      <c r="K30" s="2">
+        <f t="shared" si="11"/>
         <v>1.25</v>
       </c>
-      <c r="L23" s="2">
-        <f t="shared" si="19"/>
+      <c r="L30" s="2">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="M23" s="2">
-        <f t="shared" si="19"/>
+      <c r="M30" s="2">
+        <f t="shared" si="11"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="N23" s="2">
-        <f t="shared" si="19"/>
+      <c r="N30" s="2">
+        <f t="shared" si="11"/>
         <v>0.625</v>
       </c>
-      <c r="O23" s="3">
-        <f t="shared" si="19"/>
+      <c r="O30" s="3">
+        <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="2">
-        <f>B22/B23</f>
+      <c r="B31" s="2">
+        <f>B29/B30</f>
         <v>-0.25</v>
       </c>
-      <c r="C24" s="2">
-        <f t="shared" ref="C24" si="20">C22/C23</f>
+      <c r="C31" s="2">
+        <f t="shared" ref="C31" si="12">C29/C30</f>
         <v>-0.23399999999999999</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" ref="D24" si="21">D22/D23</f>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31" si="13">D29/D30</f>
         <v>-0.2</v>
       </c>
-      <c r="E24" s="2">
-        <f t="shared" ref="E24" si="22">E22/E23</f>
+      <c r="E31" s="2">
+        <f t="shared" ref="E31" si="14">E29/E30</f>
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="F24" s="2">
-        <f t="shared" ref="F24" si="23">F22/F23</f>
+      <c r="F31" s="2">
+        <f t="shared" ref="F31" si="15">F29/F30</f>
         <v>-1.4199999999999999E-2</v>
       </c>
-      <c r="G24" s="2">
-        <f t="shared" ref="G24" si="24">G22/G23</f>
+      <c r="G31" s="2">
+        <f t="shared" ref="G31" si="16">G29/G30</f>
         <v>-3.6000000000000003E-3</v>
       </c>
-      <c r="H24" s="2">
-        <f t="shared" ref="H24" si="25">H22/H23</f>
+      <c r="H31" s="2">
+        <f t="shared" ref="H31" si="17">H29/H30</f>
         <v>0</v>
       </c>
-      <c r="I24" s="2">
-        <f t="shared" ref="I24" si="26">I22/I23</f>
+      <c r="I31" s="2">
+        <f t="shared" ref="I31" si="18">I29/I30</f>
         <v>-3.6500000000000005E-3</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" ref="J24" si="27">J22/J23</f>
+      <c r="J31" s="2">
+        <f t="shared" ref="J31" si="19">J29/J30</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="K24" s="2">
-        <f t="shared" ref="K24" si="28">K22/K23</f>
+      <c r="K31" s="2">
+        <f t="shared" ref="K31" si="20">K29/K30</f>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="L24" s="2">
-        <f t="shared" ref="L24" si="29">L22/L23</f>
+      <c r="L31" s="2">
+        <f t="shared" ref="L31" si="21">L29/L30</f>
         <v>0.185</v>
       </c>
-      <c r="M24" s="2">
-        <f t="shared" ref="M24" si="30">M22/M23</f>
+      <c r="M31" s="2">
+        <f t="shared" ref="M31" si="22">M29/M30</f>
         <v>0.221</v>
       </c>
-      <c r="N24" s="2">
-        <f t="shared" ref="N24" si="31">N22/N23</f>
-        <v>0.22400000000000003</v>
-      </c>
-      <c r="O24" s="3">
-        <f t="shared" ref="O24" si="32">O22/O23</f>
-        <v>0.22800000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="N31" s="2">
+        <f t="shared" ref="N31" si="23">N29/N30</f>
+        <v>0.23199999999999998</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" ref="O31" si="24">O29/O30</f>
+        <v>0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="2">
-        <f>B24*360</f>
+      <c r="B32" s="2">
+        <f>B31*360</f>
         <v>-90</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" ref="C25:O25" si="33">C24*360</f>
+      <c r="C32" s="2">
+        <f t="shared" ref="C32:O32" si="25">C31*360</f>
         <v>-84.24</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="33"/>
+      <c r="D32" s="2">
+        <f t="shared" si="25"/>
         <v>-72</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" si="33"/>
+      <c r="E32" s="2">
+        <f t="shared" si="25"/>
         <v>-12.600000000000001</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="33"/>
+      <c r="F32" s="2">
+        <f t="shared" si="25"/>
         <v>-5.1120000000000001</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" si="33"/>
+      <c r="G32" s="2">
+        <f t="shared" si="25"/>
         <v>-1.296</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" si="33"/>
+      <c r="H32" s="2">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="33"/>
+      <c r="I32" s="2">
+        <f t="shared" si="25"/>
         <v>-1.3140000000000001</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="33"/>
+      <c r="J32" s="2">
+        <f t="shared" si="25"/>
         <v>16.2</v>
       </c>
-      <c r="K25" s="2">
-        <f t="shared" si="33"/>
+      <c r="K32" s="2">
+        <f t="shared" si="25"/>
         <v>31.68</v>
       </c>
-      <c r="L25" s="2">
-        <f t="shared" si="33"/>
+      <c r="L32" s="2">
+        <f t="shared" si="25"/>
         <v>66.599999999999994</v>
       </c>
-      <c r="M25" s="2">
-        <f t="shared" si="33"/>
+      <c r="M32" s="2">
+        <f t="shared" si="25"/>
         <v>79.56</v>
       </c>
-      <c r="N25" s="2">
-        <f t="shared" si="33"/>
-        <v>80.640000000000015</v>
-      </c>
-      <c r="O25" s="3">
-        <f t="shared" si="33"/>
-        <v>82.08</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="N32" s="2">
+        <f t="shared" si="25"/>
+        <v>83.52</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="25"/>
+        <v>87.84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="4">
-        <f>B25/180*PI()</f>
+      <c r="B33" s="4">
+        <f>B32/180*PI()</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="C26" s="4">
-        <f t="shared" ref="C26:O26" si="34">C25/180*PI()</f>
+      <c r="C33" s="4">
+        <f t="shared" ref="C33:O33" si="26">C32/180*PI()</f>
         <v>-1.470265361880023</v>
       </c>
-      <c r="D26" s="4">
-        <f t="shared" si="34"/>
+      <c r="D33" s="4">
+        <f t="shared" si="26"/>
         <v>-1.2566370614359172</v>
       </c>
-      <c r="E26" s="4">
-        <f t="shared" si="34"/>
+      <c r="E33" s="4">
+        <f t="shared" si="26"/>
         <v>-0.21991148575128555</v>
       </c>
-      <c r="F26" s="4">
-        <f t="shared" si="34"/>
+      <c r="F33" s="4">
+        <f t="shared" si="26"/>
         <v>-8.9221231361950135E-2</v>
       </c>
-      <c r="G26" s="4">
-        <f t="shared" si="34"/>
+      <c r="G33" s="4">
+        <f t="shared" si="26"/>
         <v>-2.2619467105846509E-2</v>
       </c>
-      <c r="H26" s="4">
-        <f t="shared" si="34"/>
+      <c r="H33" s="4">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="34"/>
+      <c r="I33" s="4">
+        <f t="shared" si="26"/>
         <v>-2.2933626371205489E-2</v>
       </c>
-      <c r="J26" s="4">
-        <f t="shared" si="34"/>
+      <c r="J33" s="4">
+        <f t="shared" si="26"/>
         <v>0.28274333882308139</v>
       </c>
-      <c r="K26" s="4">
-        <f t="shared" si="34"/>
+      <c r="K33" s="4">
+        <f t="shared" si="26"/>
         <v>0.5529203070318035</v>
       </c>
-      <c r="L26" s="4">
-        <f t="shared" si="34"/>
+      <c r="L33" s="4">
+        <f t="shared" si="26"/>
         <v>1.1623892818282235</v>
       </c>
-      <c r="M26" s="4">
-        <f t="shared" si="34"/>
+      <c r="M33" s="4">
+        <f t="shared" si="26"/>
         <v>1.3885839528866886</v>
       </c>
-      <c r="N26" s="4">
-        <f t="shared" si="34"/>
-        <v>1.4074335088082275</v>
-      </c>
-      <c r="O26" s="5">
-        <f t="shared" si="34"/>
-        <v>1.4325662500369458</v>
+      <c r="N33" s="4">
+        <f t="shared" si="26"/>
+        <v>1.4576989912656639</v>
+      </c>
+      <c r="O33" s="5">
+        <f t="shared" si="26"/>
+        <v>1.5330972149518192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <f>2*PI()*B28</f>
+        <v>628.31853071795865</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34:O34" si="27">2*PI()*C28</f>
+        <v>1884.9555921538758</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="27"/>
+        <v>3141.5926535897929</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="27"/>
+        <v>4398.22971502571</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="27"/>
+        <v>4461.0615680975061</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="27"/>
+        <v>4523.8934211693022</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="27"/>
+        <v>4549.0261623980205</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="27"/>
+        <v>4586.7252742410983</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="27"/>
+        <v>4712.3889803846896</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="27"/>
+        <v>5026.5482457436692</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="27"/>
+        <v>6283.1853071795858</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" si="27"/>
+        <v>8168.1408993334617</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="27"/>
+        <v>10053.096491487338</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" si="27"/>
+        <v>12566.370614359172</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="19">
+        <f>B34/4549.02616239802</f>
+        <v>0.138121546961326</v>
+      </c>
+      <c r="C35" s="19">
+        <f t="shared" ref="C35" si="28">C34/4549.02616239802</f>
+        <v>0.41436464088397795</v>
+      </c>
+      <c r="D35" s="19">
+        <f t="shared" ref="D35" si="29">D34/4549.02616239802</f>
+        <v>0.69060773480662996</v>
+      </c>
+      <c r="E35" s="19">
+        <f t="shared" ref="E35" si="30">E34/4549.02616239802</f>
+        <v>0.96685082872928185</v>
+      </c>
+      <c r="F35" s="19">
+        <f t="shared" ref="F35" si="31">F34/4549.02616239802</f>
+        <v>0.98066298342541458</v>
+      </c>
+      <c r="G35" s="19">
+        <f t="shared" ref="G35" si="32">G34/4549.02616239802</f>
+        <v>0.9944751381215472</v>
+      </c>
+      <c r="H35" s="19">
+        <f t="shared" ref="H35" si="33">H34/4549.02616239802</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I35" s="19">
+        <f t="shared" ref="I35" si="34">I34/4549.02616239802</f>
+        <v>1.0082872928176798</v>
+      </c>
+      <c r="J35" s="19">
+        <f t="shared" ref="J35" si="35">J34/4549.02616239802</f>
+        <v>1.0359116022099448</v>
+      </c>
+      <c r="K35" s="19">
+        <f t="shared" ref="K35" si="36">K34/4549.02616239802</f>
+        <v>1.104972375690608</v>
+      </c>
+      <c r="L35" s="19">
+        <f t="shared" ref="L35" si="37">L34/4549.02616239802</f>
+        <v>1.3812154696132599</v>
+      </c>
+      <c r="M35" s="19">
+        <f t="shared" ref="M35" si="38">M34/4549.02616239802</f>
+        <v>1.7955801104972378</v>
+      </c>
+      <c r="N35" s="19">
+        <f t="shared" ref="N35" si="39">N34/4549.02616239802</f>
+        <v>2.209944751381216</v>
+      </c>
+      <c r="O35" s="19">
+        <f t="shared" ref="O35" si="40">O34/4549.02616239802</f>
+        <v>2.7624309392265198</v>
       </c>
     </row>
   </sheetData>
